--- a/NC State Senate/SD9/Results.xlsx
+++ b/NC State Senate/SD9/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2799F7A2-47A0-4BFE-A75E-1B947F589434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04113D4-01BA-4CF1-9823-392371E61053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SD8" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="2016 Results" sheetId="8" r:id="rId5"/>
     <sheet name="2012 New Hanover" sheetId="13" r:id="rId6"/>
     <sheet name="2012 Results" sheetId="9" r:id="rId7"/>
+    <sheet name="2016 Gov Results" sheetId="17" r:id="rId8"/>
+    <sheet name="2016 Gov New Hanover" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="61">
   <si>
     <t>Precinct</t>
   </si>
@@ -1392,7 +1394,7 @@
         <v>0.54309643060725521</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:H44" si="2">(B3-C3)/D3</f>
+        <f t="shared" ref="G3:G44" si="2">(B3-C3)/D3</f>
         <v>-0.12444922633892008</v>
       </c>
     </row>
@@ -3108,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039978D8-15F2-4F76-9EF7-C510E98A776E}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4898,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E14949-6042-4261-8CBC-032208FCFB19}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44:G44"/>
     </sheetView>
   </sheetViews>
@@ -6051,4 +6053,1797 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76F053-0822-4C03-8E69-C11F9BB59499}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1220.3132675880779</v>
+      </c>
+      <c r="C2">
+        <v>1170.8374364436584</v>
+      </c>
+      <c r="D2">
+        <v>2485.6040373650699</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2/D2</f>
+        <v>0.490952399997589</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2/D2</f>
+        <v>0.47104744715688324</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(B2-C2)/D2</f>
+        <v>1.9904952840705755E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>991.95659346702348</v>
+      </c>
+      <c r="C3">
+        <v>1077.3758516047349</v>
+      </c>
+      <c r="D3">
+        <v>2136.0657784050914</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E44" si="0">B3/D3</f>
+        <v>0.4643848534513178</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F44" si="1">C3/D3</f>
+        <v>0.50437391137325616</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G44" si="2">(B3-C3)/D3</f>
+        <v>-3.9989057921938284E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>892.76093412032117</v>
+      </c>
+      <c r="C4">
+        <v>1106.1332623244036</v>
+      </c>
+      <c r="D4">
+        <v>2057.4141964447249</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43392377464053644</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53763275486085205</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.10370898022031559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>597.24053231660378</v>
+      </c>
+      <c r="C5">
+        <v>756.93613215699668</v>
+      </c>
+      <c r="D5">
+        <v>1396.2699978069336</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42774000247421057</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54211301062537087</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.11437300815116024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1390.8058070902225</v>
+      </c>
+      <c r="C6">
+        <v>2005.8293976968989</v>
+      </c>
+      <c r="D6">
+        <v>3505.4618714537883</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39675393944976112</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57220117383990821</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.17544723439014709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1126.2840488323495</v>
+      </c>
+      <c r="C7">
+        <v>1456.3574428746558</v>
+      </c>
+      <c r="D7">
+        <v>2679.1481583736718</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4203888632706449</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54358973702996372</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12320087375931883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1418.7045862814825</v>
+      </c>
+      <c r="C8">
+        <v>1980.1531381257662</v>
+      </c>
+      <c r="D8">
+        <v>3513.8443910739152</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40374712946462959</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56352897787843814</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.15978184841380852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1744.1903435128497</v>
+      </c>
+      <c r="C9">
+        <v>1967.8285335316223</v>
+      </c>
+      <c r="D9">
+        <v>3831.1122103778052</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45526997063363128</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.51364419141812734</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.8374220784496014E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>637.53876892620156</v>
+      </c>
+      <c r="C10">
+        <v>599.79742358166357</v>
+      </c>
+      <c r="D10">
+        <v>1294.8295258411986</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.49237274575741413</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46322501272281336</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9147733034600797E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1081.8526597499724</v>
+      </c>
+      <c r="C11">
+        <v>1817.8791776362064</v>
+      </c>
+      <c r="D11">
+        <v>2951.0651707195125</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36659734609866346</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61600780479984485</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.24941045870118145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1633.6285148660043</v>
+      </c>
+      <c r="C12">
+        <v>2023.2892542052693</v>
+      </c>
+      <c r="D12">
+        <v>3743.1577690712734</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43643057964701526</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54053004950076522</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.10409946985374999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1425.9376031088464</v>
+      </c>
+      <c r="C13">
+        <v>1430.6811833035229</v>
+      </c>
+      <c r="D13">
+        <v>2958.2587864123693</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48201922348996157</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4836227276243748</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.6035041344132294E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1245.1121824247534</v>
+      </c>
+      <c r="C14">
+        <v>1525.1698185252919</v>
+      </c>
+      <c r="D14">
+        <v>2845.2286676167123</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4376140999126491</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53604472494045297</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.8430625027803823E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>969.22425486673751</v>
+      </c>
+      <c r="C15">
+        <v>1072.2405996905081</v>
+      </c>
+      <c r="D15">
+        <v>2140.0248545572458</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45290327016658055</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50104118996895775</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.8137919802377194E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1960.1475602155663</v>
+      </c>
+      <c r="C16">
+        <v>2377.6216362869027</v>
+      </c>
+      <c r="D16">
+        <v>4460.9691965024685</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43939948335719953</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53298319973852948</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.3583716381329965E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1525.1332624555487</v>
+      </c>
+      <c r="C17">
+        <v>1121.5390180670834</v>
+      </c>
+      <c r="D17">
+        <v>2745.2322805226318</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55555709193584046</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40854066376254583</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14701642817329463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1918.8160354877737</v>
+      </c>
+      <c r="C18">
+        <v>2314.9715629333386</v>
+      </c>
+      <c r="D18">
+        <v>4345.6942650877791</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44154418567892867</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53270465470413808</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.1160469025209481E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1089.0856765773362</v>
+      </c>
+      <c r="C19">
+        <v>1485.1148535943246</v>
+      </c>
+      <c r="D19">
+        <v>2644.0138635049943</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41190618990688926</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56168951082034269</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.14978332091345339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1414.5714338087032</v>
+      </c>
+      <c r="C20">
+        <v>1927.7735686006552</v>
+      </c>
+      <c r="D20">
+        <v>3395.7316690760249</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41657338437274305</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56770491795813782</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.15113153358539477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>2206.0701323459325</v>
+      </c>
+      <c r="C21">
+        <v>2507.0299845254121</v>
+      </c>
+      <c r="D21">
+        <v>4810.6334502046784</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45858204645628753</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5211434233091996</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.2561376852912104E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>1225.4797081790518</v>
+      </c>
+      <c r="C22">
+        <v>1490.2501055085511</v>
+      </c>
+      <c r="D22">
+        <v>2813.2631470209362</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43560792010401006</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52972296853446843</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.4115048430458412E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>2349.6971807750119</v>
+      </c>
+      <c r="C23">
+        <v>2308.8092606362666</v>
+      </c>
+      <c r="D23">
+        <v>4786.8397747446115</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.49086606014515566</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48232432445672296</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5417356884327344E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>986.79015287604943</v>
+      </c>
+      <c r="C24">
+        <v>1207.8112502260897</v>
+      </c>
+      <c r="D24">
+        <v>2250.0414031021392</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43856533107148993</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53679512233013871</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.8229791258648738E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>650.97151446273415</v>
+      </c>
+      <c r="C25">
+        <v>886.34448039550625</v>
+      </c>
+      <c r="D25">
+        <v>1577.3559948582404</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41269790496547865</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56191784434506398</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.1492199393795853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>1219.2799794698831</v>
+      </c>
+      <c r="C26">
+        <v>176.65266584939408</v>
+      </c>
+      <c r="D26">
+        <v>1446.2393119859437</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84306931042801958</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12214622046666576</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7209230899613539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>705.73578472705947</v>
+      </c>
+      <c r="C27">
+        <v>373.84633935569445</v>
+      </c>
+      <c r="D27">
+        <v>1108.3287907494207</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63675670127621675</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33730635031407069</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29945035096214612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>827.66378267404775</v>
+      </c>
+      <c r="C28">
+        <v>473.47022649168991</v>
+      </c>
+      <c r="D28">
+        <v>1338.0940091657376</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.618539338047012</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35383928427187616</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26470005377513584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>963.02452615756863</v>
+      </c>
+      <c r="C29">
+        <v>390.27914548121947</v>
+      </c>
+      <c r="D29">
+        <v>1409.7703383054547</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68310738280614203</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2768388118807602</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.40626857092538188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2339.3642995930636</v>
+      </c>
+      <c r="C30">
+        <v>518.66044333688376</v>
+      </c>
+      <c r="D30">
+        <v>2953.5047429299475</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79206383710505168</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17560846806779126</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61645536903726039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1202.747369578766</v>
+      </c>
+      <c r="C31">
+        <v>1168.7833356779677</v>
+      </c>
+      <c r="D31">
+        <v>2442.3707052567338</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.49245078439160905</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47854460961326878</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3906174778340264E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>892.76093412032117</v>
+      </c>
+      <c r="C32">
+        <v>834.99196125324056</v>
+      </c>
+      <c r="D32">
+        <v>1758.5528953735618</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50766794474537302</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47481765458972264</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2850290155650393E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>606.54012538035704</v>
+      </c>
+      <c r="C33">
+        <v>488.87598223436964</v>
+      </c>
+      <c r="D33">
+        <v>1136.4827742813932</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53369935656427092</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.43016576519911592</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10353359136515496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>1388.7392308538329</v>
+      </c>
+      <c r="C34">
+        <v>1249.9203159227475</v>
+      </c>
+      <c r="D34">
+        <v>2713.6062134432468</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51176888672129262</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46061226928602356</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>5.1156617435269107E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>1734.8907504490962</v>
+      </c>
+      <c r="C35">
+        <v>898.66908498965006</v>
+      </c>
+      <c r="D35">
+        <v>2749.5731687720795</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63096729708919652</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32683948737795654</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30412780971123998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>1987.0130512886315</v>
+      </c>
+      <c r="C36">
+        <v>319.41266906489278</v>
+      </c>
+      <c r="D36">
+        <v>2389.5857203535243</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83153035037163903</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13366863818454594</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69786171218709314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>1081.8526597499724</v>
+      </c>
+      <c r="C37">
+        <v>564.87771056492295</v>
+      </c>
+      <c r="D37">
+        <v>1703.1970369815622</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63518937401820053</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33165728820548551</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30353208581271501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>1751.4233603402133</v>
+      </c>
+      <c r="C38">
+        <v>396.44144777829132</v>
+      </c>
+      <c r="D38">
+        <v>2211.5181414518379</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79195523089420494</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17926212783315978</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61269310306104519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>1487.9348902005352</v>
+      </c>
+      <c r="C39">
+        <v>791.85584517373741</v>
+      </c>
+      <c r="D39">
+        <v>2404.017402040939</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61893682172904529</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32938856619817952</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>0.28954825553086572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>1901.2501374784617</v>
+      </c>
+      <c r="C40">
+        <v>158.1657589581784</v>
+      </c>
+      <c r="D40">
+        <v>2097.4025631033069</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9064784085442239</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5410301169918037E-2</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>0.83106810737430581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1573.6978040107049</v>
+      </c>
+      <c r="C41">
+        <v>1193.4325448662553</v>
+      </c>
+      <c r="D41">
+        <v>2857.4770155436267</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55072982055511421</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41765254396603019</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13307727658908403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>1442.4702129999635</v>
+      </c>
+      <c r="C42">
+        <v>1415.2754275608431</v>
+      </c>
+      <c r="D42">
+        <v>2905.9989738941395</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.49637671105816095</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48701855722417031</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3581538339906449E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>800.79829160098257</v>
+      </c>
+      <c r="C43">
+        <v>888.39858116119694</v>
+      </c>
+      <c r="D43">
+        <v>1716.9168727621795</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4664164609860561</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.517438319382312</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.1021858396255865E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <f>SUM(B2:B43)</f>
+        <v>55609.499945008611</v>
+      </c>
+      <c r="C44">
+        <f>SUM(C2:C43)</f>
+        <v>49919.783858196526</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D2:D43)</f>
+        <v>108709.89713653846</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51154036025959693</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45920183141648835</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>5.2338528843108571E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED4FE81-549E-4B2D-A999-AB088449877C}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1220.3132675880779</v>
+      </c>
+      <c r="C2">
+        <v>1170.8374364436584</v>
+      </c>
+      <c r="D2">
+        <v>2485.6040373650699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>760.50005499138467</v>
+      </c>
+      <c r="C3">
+        <v>1185.2161418034927</v>
+      </c>
+      <c r="D3">
+        <v>1999.1028634615441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>991.95659346702348</v>
+      </c>
+      <c r="C4">
+        <v>1077.3758516047349</v>
+      </c>
+      <c r="D4">
+        <v>2136.0657784050914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>892.76093412032117</v>
+      </c>
+      <c r="C5">
+        <v>1106.1332623244036</v>
+      </c>
+      <c r="D5">
+        <v>2057.4141964447249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>597.24053231660378</v>
+      </c>
+      <c r="C6">
+        <v>756.93613215699668</v>
+      </c>
+      <c r="D6">
+        <v>1396.2699978069336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>1390.8058070902225</v>
+      </c>
+      <c r="C7">
+        <v>2005.8293976968989</v>
+      </c>
+      <c r="D7">
+        <v>3505.4618714537883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1126.2840488323495</v>
+      </c>
+      <c r="C8">
+        <v>1456.3574428746558</v>
+      </c>
+      <c r="D8">
+        <v>2679.1481583736718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1418.7045862814825</v>
+      </c>
+      <c r="C9">
+        <v>1980.1531381257662</v>
+      </c>
+      <c r="D9">
+        <v>3513.8443910739152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1744.1903435128497</v>
+      </c>
+      <c r="C10">
+        <v>1967.8285335316223</v>
+      </c>
+      <c r="D10">
+        <v>3831.1122103778052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>637.53876892620156</v>
+      </c>
+      <c r="C11">
+        <v>599.79742358166357</v>
+      </c>
+      <c r="D11">
+        <v>1294.8295258411986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1081.8526597499724</v>
+      </c>
+      <c r="C12">
+        <v>1817.8791776362064</v>
+      </c>
+      <c r="D12">
+        <v>2951.0651707195125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1633.6285148660043</v>
+      </c>
+      <c r="C13">
+        <v>2023.2892542052693</v>
+      </c>
+      <c r="D13">
+        <v>3743.1577690712734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1425.9376031088464</v>
+      </c>
+      <c r="C14">
+        <v>1430.6811833035229</v>
+      </c>
+      <c r="D14">
+        <v>2958.2587864123693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1245.1121824247534</v>
+      </c>
+      <c r="C15">
+        <v>1525.1698185252919</v>
+      </c>
+      <c r="D15">
+        <v>2845.2286676167123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>969.22425486673751</v>
+      </c>
+      <c r="C16">
+        <v>1072.2405996905081</v>
+      </c>
+      <c r="D16">
+        <v>2140.0248545572458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>1960.1475602155663</v>
+      </c>
+      <c r="C17">
+        <v>2377.6216362869027</v>
+      </c>
+      <c r="D17">
+        <v>4460.9691965024685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1525.1332624555487</v>
+      </c>
+      <c r="C18">
+        <v>1121.5390180670834</v>
+      </c>
+      <c r="D18">
+        <v>2745.2322805226318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1918.8160354877737</v>
+      </c>
+      <c r="C19">
+        <v>2314.9715629333386</v>
+      </c>
+      <c r="D19">
+        <v>4345.6942650877791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1089.0856765773362</v>
+      </c>
+      <c r="C20">
+        <v>1485.1148535943246</v>
+      </c>
+      <c r="D20">
+        <v>2644.0138635049943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1414.5714338087032</v>
+      </c>
+      <c r="C21">
+        <v>1927.7735686006552</v>
+      </c>
+      <c r="D21">
+        <v>3395.7316690760249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>2206.0701323459325</v>
+      </c>
+      <c r="C22">
+        <v>2507.0299845254121</v>
+      </c>
+      <c r="D22">
+        <v>4810.6334502046784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1225.4797081790518</v>
+      </c>
+      <c r="C23">
+        <v>1490.2501055085511</v>
+      </c>
+      <c r="D23">
+        <v>2813.2631470209362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>2349.6971807750119</v>
+      </c>
+      <c r="C24">
+        <v>2308.8092606362666</v>
+      </c>
+      <c r="D24">
+        <v>4786.8397747446115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>986.79015287604943</v>
+      </c>
+      <c r="C25">
+        <v>1207.8112502260897</v>
+      </c>
+      <c r="D25">
+        <v>2250.0414031021392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>650.97151446273415</v>
+      </c>
+      <c r="C26">
+        <v>886.34448039550625</v>
+      </c>
+      <c r="D26">
+        <v>1577.3559948582404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>1219.2799794698831</v>
+      </c>
+      <c r="C27">
+        <v>176.65266584939408</v>
+      </c>
+      <c r="D27">
+        <v>1446.2393119859437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>705.73578472705947</v>
+      </c>
+      <c r="C28">
+        <v>373.84633935569445</v>
+      </c>
+      <c r="D28">
+        <v>1108.3287907494207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>827.66378267404775</v>
+      </c>
+      <c r="C29">
+        <v>473.47022649168991</v>
+      </c>
+      <c r="D29">
+        <v>1338.0940091657376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>963.02452615756863</v>
+      </c>
+      <c r="C30">
+        <v>390.27914548121947</v>
+      </c>
+      <c r="D30">
+        <v>1409.7703383054547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>2339.3642995930636</v>
+      </c>
+      <c r="C31">
+        <v>518.66044333688376</v>
+      </c>
+      <c r="D31">
+        <v>2953.5047429299475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>1202.747369578766</v>
+      </c>
+      <c r="C32">
+        <v>1168.7833356779677</v>
+      </c>
+      <c r="D32">
+        <v>2442.3707052567338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>892.76093412032117</v>
+      </c>
+      <c r="C33">
+        <v>834.99196125324056</v>
+      </c>
+      <c r="D33">
+        <v>1758.5528953735618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>606.54012538035704</v>
+      </c>
+      <c r="C34">
+        <v>488.87598223436964</v>
+      </c>
+      <c r="D34">
+        <v>1136.4827742813932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>1388.7392308538329</v>
+      </c>
+      <c r="C35">
+        <v>1249.9203159227475</v>
+      </c>
+      <c r="D35">
+        <v>2713.6062134432468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>1734.8907504490962</v>
+      </c>
+      <c r="C36">
+        <v>898.66908498965006</v>
+      </c>
+      <c r="D36">
+        <v>2749.5731687720795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>1987.0130512886315</v>
+      </c>
+      <c r="C37">
+        <v>319.41266906489278</v>
+      </c>
+      <c r="D37">
+        <v>2389.5857203535243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>1081.8526597499724</v>
+      </c>
+      <c r="C38">
+        <v>564.87771056492295</v>
+      </c>
+      <c r="D38">
+        <v>1703.1970369815622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>1751.4233603402133</v>
+      </c>
+      <c r="C39">
+        <v>396.44144777829132</v>
+      </c>
+      <c r="D39">
+        <v>2211.5181414518379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>1487.9348902005352</v>
+      </c>
+      <c r="C40">
+        <v>791.85584517373741</v>
+      </c>
+      <c r="D40">
+        <v>2404.017402040939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>1901.2501374784617</v>
+      </c>
+      <c r="C41">
+        <v>158.1657589581784</v>
+      </c>
+      <c r="D41">
+        <v>2097.4025631033069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>1573.6978040107049</v>
+      </c>
+      <c r="C42">
+        <v>1193.4325448662553</v>
+      </c>
+      <c r="D42">
+        <v>2857.4770155436267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>1442.4702129999635</v>
+      </c>
+      <c r="C43">
+        <v>1415.2754275608431</v>
+      </c>
+      <c r="D43">
+        <v>2905.9989738941395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>800.79829160098257</v>
+      </c>
+      <c r="C44">
+        <v>888.39858116119694</v>
+      </c>
+      <c r="D44">
+        <v>1716.9168727621795</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1038942">
+    <sortCondition ref="A2:A1038942"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>